--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll4-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll4-Notch3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.62133033333333</v>
+        <v>45.98144433333334</v>
       </c>
       <c r="H2">
-        <v>82.863991</v>
+        <v>137.944333</v>
       </c>
       <c r="I2">
-        <v>0.984261144236963</v>
+        <v>0.9841234286873372</v>
       </c>
       <c r="J2">
-        <v>0.9842611442369629</v>
+        <v>0.984123428687337</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N2">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O2">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P2">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q2">
-        <v>101.7669982838009</v>
+        <v>144.8948268168342</v>
       </c>
       <c r="R2">
-        <v>915.902984554208</v>
+        <v>1304.053441351508</v>
       </c>
       <c r="S2">
-        <v>0.03907630650826614</v>
+        <v>0.03065256678989275</v>
       </c>
       <c r="T2">
-        <v>0.03907630650826614</v>
+        <v>0.03065256678989274</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.62133033333333</v>
+        <v>45.98144433333334</v>
       </c>
       <c r="H3">
-        <v>82.863991</v>
+        <v>137.944333</v>
       </c>
       <c r="I3">
-        <v>0.984261144236963</v>
+        <v>0.9841234286873372</v>
       </c>
       <c r="J3">
-        <v>0.9842611442369629</v>
+        <v>0.984123428687337</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N3">
         <v>15.114731</v>
       </c>
       <c r="O3">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P3">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q3">
-        <v>139.1629926168245</v>
+        <v>231.6657206966026</v>
       </c>
       <c r="R3">
-        <v>1252.466933551421</v>
+        <v>2084.991486269423</v>
       </c>
       <c r="S3">
-        <v>0.05343555224983208</v>
+        <v>0.0490089890204156</v>
       </c>
       <c r="T3">
-        <v>0.05343555224983206</v>
+        <v>0.04900898902041559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.62133033333333</v>
+        <v>45.98144433333334</v>
       </c>
       <c r="H4">
-        <v>82.863991</v>
+        <v>137.944333</v>
       </c>
       <c r="I4">
-        <v>0.984261144236963</v>
+        <v>0.9841234286873372</v>
       </c>
       <c r="J4">
-        <v>0.9842611442369629</v>
+        <v>0.984123428687337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N4">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O4">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P4">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q4">
-        <v>2319.711873421008</v>
+        <v>4272.211356597262</v>
       </c>
       <c r="R4">
-        <v>20877.40686078908</v>
+        <v>38449.90220937536</v>
       </c>
       <c r="S4">
-        <v>0.8907187369708678</v>
+        <v>0.9037882637050868</v>
       </c>
       <c r="T4">
-        <v>0.8907187369708678</v>
+        <v>0.9037882637050867</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.62133033333333</v>
+        <v>45.98144433333334</v>
       </c>
       <c r="H5">
-        <v>82.863991</v>
+        <v>137.944333</v>
       </c>
       <c r="I5">
-        <v>0.984261144236963</v>
+        <v>0.9841234286873372</v>
       </c>
       <c r="J5">
-        <v>0.9842611442369629</v>
+        <v>0.984123428687337</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N5">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O5">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P5">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q5">
-        <v>2.683872597388889</v>
+        <v>3.184153711490889</v>
       </c>
       <c r="R5">
-        <v>24.1548533765</v>
+        <v>28.657383403418</v>
       </c>
       <c r="S5">
-        <v>0.001030548507997003</v>
+        <v>0.0006736091719419457</v>
       </c>
       <c r="T5">
-        <v>0.001030548507997003</v>
+        <v>0.0006736091719419456</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>0.314602</v>
       </c>
       <c r="I6">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="J6">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N6">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O6">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P6">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q6">
-        <v>0.3863692878862222</v>
+        <v>0.3304536062835556</v>
       </c>
       <c r="R6">
-        <v>3.477323590976</v>
+        <v>2.974082456552</v>
       </c>
       <c r="S6">
-        <v>0.0001483573749195057</v>
+        <v>6.990761133502917E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001483573749195057</v>
+        <v>6.990761133502914E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.314602</v>
       </c>
       <c r="I7">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="J7">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N7">
         <v>15.114731</v>
       </c>
       <c r="O7">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P7">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q7">
-        <v>0.5283471780068888</v>
+        <v>0.5283471780068889</v>
       </c>
       <c r="R7">
-        <v>4.755124602062</v>
+        <v>4.755124602062001</v>
       </c>
       <c r="S7">
-        <v>0.0002028737863820929</v>
+        <v>0.0001117720868156345</v>
       </c>
       <c r="T7">
-        <v>0.0002028737863820929</v>
+        <v>0.0001117720868156344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.314602</v>
       </c>
       <c r="I8">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="J8">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N8">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O8">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P8">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q8">
-        <v>8.807034104862222</v>
+        <v>9.743395817559332</v>
       </c>
       <c r="R8">
-        <v>79.26330694376</v>
+        <v>87.690562358034</v>
       </c>
       <c r="S8">
-        <v>0.003381708902827392</v>
+        <v>0.002061219835237071</v>
       </c>
       <c r="T8">
-        <v>0.003381708902827392</v>
+        <v>0.002061219835237071</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.314602</v>
       </c>
       <c r="I9">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="J9">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N9">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O9">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P9">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q9">
-        <v>0.01018960922222222</v>
+        <v>0.007261923010222221</v>
       </c>
       <c r="R9">
-        <v>0.09170648299999999</v>
+        <v>0.06535730709199999</v>
       </c>
       <c r="S9">
-        <v>3.912587576343904E-06</v>
+        <v>1.536263129499347E-06</v>
       </c>
       <c r="T9">
-        <v>3.912587576343904E-06</v>
+        <v>1.536263129499346E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3150376666666666</v>
+        <v>0.547937</v>
       </c>
       <c r="H10">
-        <v>0.9451129999999999</v>
+        <v>1.643811</v>
       </c>
       <c r="I10">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="J10">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N10">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O10">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P10">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q10">
-        <v>1.160713017660444</v>
+        <v>1.726636426337333</v>
       </c>
       <c r="R10">
-        <v>10.446417158944</v>
+        <v>15.539727837036</v>
       </c>
       <c r="S10">
-        <v>0.0004456884688663732</v>
+        <v>0.0003652707245861299</v>
       </c>
       <c r="T10">
-        <v>0.0004456884688663732</v>
+        <v>0.0003652707245861297</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3150376666666666</v>
+        <v>0.547937</v>
       </c>
       <c r="H11">
-        <v>0.9451129999999999</v>
+        <v>1.643811</v>
       </c>
       <c r="I11">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="J11">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N11">
         <v>15.114731</v>
       </c>
       <c r="O11">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P11">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q11">
-        <v>1.587236528844777</v>
+        <v>2.760640119982334</v>
       </c>
       <c r="R11">
-        <v>14.285128759603</v>
+        <v>24.845761079841</v>
       </c>
       <c r="S11">
-        <v>0.0006094641892579797</v>
+        <v>0.0005840146782299378</v>
       </c>
       <c r="T11">
-        <v>0.0006094641892579797</v>
+        <v>0.0005840146782299376</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3150376666666666</v>
+        <v>0.547937</v>
       </c>
       <c r="H12">
-        <v>0.9451129999999999</v>
+        <v>1.643811</v>
       </c>
       <c r="I12">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="J12">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N12">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O12">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P12">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q12">
-        <v>26.45769074560444</v>
+        <v>50.90972473874299</v>
       </c>
       <c r="R12">
-        <v>238.11921671044</v>
+        <v>458.187522648687</v>
       </c>
       <c r="S12">
-        <v>0.01015917586753392</v>
+        <v>0.0107699755201203</v>
       </c>
       <c r="T12">
-        <v>0.01015917586753392</v>
+        <v>0.0107699755201203</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3150376666666666</v>
+        <v>0.547937</v>
       </c>
       <c r="H13">
-        <v>0.9451129999999999</v>
+        <v>1.643811</v>
       </c>
       <c r="I13">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="J13">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N13">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O13">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P13">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q13">
-        <v>0.03061115994444444</v>
+        <v>0.03794390666733333</v>
       </c>
       <c r="R13">
-        <v>0.2755004395</v>
+        <v>0.3414951600059999</v>
       </c>
       <c r="S13">
-        <v>1.175401739989293E-05</v>
+        <v>8.02705078532702E-06</v>
       </c>
       <c r="T13">
-        <v>1.175401739989293E-05</v>
+        <v>8.027050785327015E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02177466666666667</v>
+        <v>0.08900066666666666</v>
       </c>
       <c r="H14">
-        <v>0.06532400000000001</v>
+        <v>0.267002</v>
       </c>
       <c r="I14">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="J14">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N14">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O14">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P14">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q14">
-        <v>0.08022576894577779</v>
+        <v>0.2804552221057778</v>
       </c>
       <c r="R14">
-        <v>0.7220319205120002</v>
+        <v>2.524096998952</v>
       </c>
       <c r="S14">
-        <v>3.080494453068254E-05</v>
+        <v>5.93304303268112E-05</v>
       </c>
       <c r="T14">
-        <v>3.080494453068254E-05</v>
+        <v>5.933043032681118E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02177466666666667</v>
+        <v>0.08900066666666666</v>
       </c>
       <c r="H15">
-        <v>0.06532400000000001</v>
+        <v>0.267002</v>
       </c>
       <c r="I15">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="J15">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N15">
         <v>15.114731</v>
       </c>
       <c r="O15">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P15">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q15">
-        <v>0.1097060764271111</v>
+        <v>0.4484070451624445</v>
       </c>
       <c r="R15">
-        <v>0.987354687844</v>
+        <v>4.035663406462001</v>
       </c>
       <c r="S15">
-        <v>4.212473926301753E-05</v>
+        <v>9.486071520189964E-05</v>
       </c>
       <c r="T15">
-        <v>4.212473926301752E-05</v>
+        <v>9.486071520189961E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02177466666666667</v>
+        <v>0.08900066666666666</v>
       </c>
       <c r="H16">
-        <v>0.06532400000000001</v>
+        <v>0.267002</v>
       </c>
       <c r="I16">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="J16">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N16">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O16">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P16">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q16">
-        <v>1.828693701457778</v>
+        <v>8.269197812092665</v>
       </c>
       <c r="R16">
-        <v>16.45824331312</v>
+        <v>74.42278030883399</v>
       </c>
       <c r="S16">
-        <v>0.0007021784742890911</v>
+        <v>0.001749352573880549</v>
       </c>
       <c r="T16">
-        <v>0.0007021784742890911</v>
+        <v>0.001749352573880549</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.02177466666666667</v>
+        <v>0.08900066666666666</v>
       </c>
       <c r="H17">
-        <v>0.06532400000000001</v>
+        <v>0.267002</v>
       </c>
       <c r="I17">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="J17">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N17">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O17">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P17">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q17">
-        <v>0.002115771777777778</v>
+        <v>0.006163177499111111</v>
       </c>
       <c r="R17">
-        <v>0.019041946</v>
+        <v>0.05546859749199999</v>
       </c>
       <c r="S17">
-        <v>8.124101907714803E-07</v>
+        <v>1.30382301480151E-06</v>
       </c>
       <c r="T17">
-        <v>8.124101907714803E-07</v>
+        <v>1.303823014801509E-06</v>
       </c>
     </row>
   </sheetData>
